--- a/biology/Mycologie/Saprolegnia/Saprolegnia.xlsx
+++ b/biology/Mycologie/Saprolegnia/Saprolegnia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le genre Saprolegnia est un genre de micro-organismes qui ressemblent aux champignons. Ce sont des Oomycètes, et les analyses phylogénétiques ont montré qu'ils étaient en réalité éloignés des champignons. Ces organismes sont communs dans l'eau, sur les déchets organiques et les cadavres de petits animaux. La plupart des espèces sont des organismes saprophytes, mais certaines espèces sont pathogènes ou parasites :
 provoquant des mycoses chez l'homme
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (14 juin 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (14 juin 2012) :
 Saprolegnia anisospora
 Saprolegnia australis
 Saprolegnia crustosa
@@ -541,7 +555,7 @@
 Saprolegnia terrestris
 Saprolegnia turfosa
 Saprolegnia unispora
-Selon ITIS      (14 juin 2012)[2] :
+Selon ITIS      (14 juin 2012) :
 Saprolegnia acedamica
 Saprolegnia delicata
 Saprolegnia diclina Humphrey
@@ -558,7 +572,7 @@
 Saprolegnia terrestris Cookson ex Seym.
 Saprolegnia torulosa de Bary
 Saprolegnia turfosa (Minden) Gäum.
-Selon NCBI  (14 juin 2012)[3] :
+Selon NCBI  (14 juin 2012) :
 Saprolegnia anisospora
 Saprolegnia anomalies
 Saprolegnia asterophora
